--- a/public/assets/file-excel/template.xlsx
+++ b/public/assets/file-excel/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cbt-malela-ci4\public\assets\app-assets\file-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Pembelajaran Online\public\assets\file-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DB132E-ADBF-4207-92C9-756E6BCEA2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAC76A0-025B-41E6-8DB1-672F1DFEF3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="240" windowWidth="19440" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>jawaban</t>
   </si>
@@ -204,31 +204,7 @@
     <t>opsi E</t>
   </si>
   <si>
-    <t>nomaden</t>
-  </si>
-  <si>
-    <t>100 J</t>
-  </si>
-  <si>
-    <t>0.1 x 1000 partikel</t>
-  </si>
-  <si>
-    <t>18 π m/s</t>
-  </si>
-  <si>
-    <t>50 m/s</t>
-  </si>
-  <si>
-    <t>11 s</t>
-  </si>
-  <si>
-    <t>2 joule</t>
-  </si>
-  <si>
-    <t>tegangan listrik</t>
-  </si>
-  <si>
-    <t>B dengan resultan gaya 40 N</t>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -627,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>16</v>
@@ -728,7 +704,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>10</v>
@@ -751,7 +727,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>28</v>
@@ -774,7 +750,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>28</v>
@@ -796,8 +772,8 @@
       <c r="E7" s="6">
         <v>14</v>
       </c>
-      <c r="F7" s="6">
-        <v>90</v>
+      <c r="F7" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>37</v>
@@ -820,7 +796,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>16</v>
@@ -843,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>10</v>
@@ -866,7 +842,7 @@
         <v>52</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>37</v>
@@ -889,7 +865,7 @@
         <v>57</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>10</v>
